--- a/ExcelData/Assets/Data/Test.xlsx
+++ b/ExcelData/Assets/Data/Test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc-012\Documents\GitHub\ExcelData\ExcelData\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc-007\Documents\git\KSW\ExcelData\ExcelData\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65759D4-607D-47AC-B8BF-290D3E722E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB932937-5AAE-42A4-B6F5-F8E96470E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69F543F7-AA9F-4445-ABD9-3BE2C9FBEA55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69F543F7-AA9F-4445-ABD9-3BE2C9FBEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,11 +48,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float(float)</t>
+    <t>Float(float[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location(Vector3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsfgdfgfdg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>werewrewr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhhfgh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuiuyiuyiyiyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jluiuyktyjhtyj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F450186-3B04-4957-9547-74B673E96C8B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -461,8 +514,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -475,8 +528,8 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -489,12 +542,91 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8FFD4F-23C4-47FB-AF9B-4696F03BC198}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>